--- a/updateOct11/cpu/SRT.xlsx
+++ b/updateOct11/cpu/SRT.xlsx
@@ -12,7 +12,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>AVG_QUEUE_SIZE</t>
+  </si>
+  <si>
+    <t>CPU_TIME</t>
+  </si>
+  <si>
+    <t>TURNAROUND</t>
+  </si>
+  <si>
+    <t>WAITCPU_TIME</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,520 +71,537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B1" t="n">
-        <v>599.8482350151766</v>
-      </c>
-      <c r="C1" t="n">
-        <v>1029.5360446512877</v>
-      </c>
-      <c r="D1" t="n">
-        <v>-170.16042537907154</v>
-      </c>
-      <c r="E1" t="n">
-        <v>10599.848235015135</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5051.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>550.515875148743</v>
+        <v>599.5003134659545</v>
       </c>
       <c r="C2" t="n">
-        <v>5.2768665654377066E7</v>
+        <v>1421.8433836023103</v>
       </c>
       <c r="D2" t="n">
-        <v>5.2767564622626774E7</v>
+        <v>222.84275667039205</v>
       </c>
       <c r="E2" t="n">
-        <v>10550.515875148738</v>
+        <v>10599.500313465962</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10101.0</v>
+        <v>5051.0</v>
       </c>
       <c r="B3" t="n">
-        <v>533.5726301426332</v>
+        <v>549.1977475972473</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0537061484363371E8</v>
+        <v>5.276250337977644E7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0536954769837344E8</v>
+        <v>5.276140498428125E7</v>
       </c>
       <c r="E3" t="n">
-        <v>10533.572630142613</v>
+        <v>10549.19774759723</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15151.0</v>
+        <v>10101.0</v>
       </c>
       <c r="B4" t="n">
-        <v>525.0339277539804</v>
+        <v>533.9141510171044</v>
       </c>
       <c r="C4" t="n">
-        <v>1.5792563369631872E8</v>
+        <v>1.0537116791480896E8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.579245836284632E8</v>
+        <v>1.053701000865069E8</v>
       </c>
       <c r="E4" t="n">
-        <v>10525.03392775402</v>
+        <v>10533.914151017098</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20201.0</v>
+        <v>15151.0</v>
       </c>
       <c r="B5" t="n">
-        <v>519.9345955933996</v>
+        <v>525.2061133457579</v>
       </c>
       <c r="C5" t="n">
-        <v>2.1045903857243648E8</v>
+        <v>1.5792437233006203E8</v>
       </c>
       <c r="D5" t="n">
-        <v>2.1045799870324525E8</v>
+        <v>1.5792332191783535E8</v>
       </c>
       <c r="E5" t="n">
-        <v>10519.93459559335</v>
+        <v>10525.206113345721</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25251.0</v>
+        <v>20201.0</v>
       </c>
       <c r="B6" t="n">
-        <v>516.5799458050138</v>
+        <v>520.0824716151926</v>
       </c>
       <c r="C6" t="n">
-        <v>2.6299396937337047E8</v>
+        <v>2.104695386503548E8</v>
       </c>
       <c r="D6" t="n">
-        <v>2.6299293621347886E8</v>
+        <v>2.1046849848541158E8</v>
       </c>
       <c r="E6" t="n">
-        <v>10516.579945805022</v>
+        <v>10520.082471615195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30301.0</v>
+        <v>25251.0</v>
       </c>
       <c r="B7" t="n">
-        <v>514.3158107746633</v>
+        <v>516.7799484385566</v>
       </c>
       <c r="C7" t="n">
-        <v>3.1551993853383887E8</v>
+        <v>2.629972928078459E8</v>
       </c>
       <c r="D7" t="n">
-        <v>3.1551890990221727E8</v>
+        <v>2.62996259247949E8</v>
       </c>
       <c r="E7" t="n">
-        <v>10514.315810774648</v>
+        <v>10516.77994843857</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35351.0</v>
+        <v>30301.0</v>
       </c>
       <c r="B8" t="n">
-        <v>512.5565071408172</v>
+        <v>514.1016487654431</v>
       </c>
       <c r="C8" t="n">
-        <v>3.680475242237789E8</v>
+        <v>3.155188455394907E8</v>
       </c>
       <c r="D8" t="n">
-        <v>3.680464991107647E8</v>
+        <v>3.155178173361932E8</v>
       </c>
       <c r="E8" t="n">
-        <v>10512.556507140825</v>
+        <v>10514.101648765429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>40401.0</v>
+        <v>35351.0</v>
       </c>
       <c r="B9" t="n">
-        <v>511.15173209486375</v>
+        <v>512.4929841757461</v>
       </c>
       <c r="C9" t="n">
-        <v>4.205781751140111E8</v>
+        <v>3.680472237794197E8</v>
       </c>
       <c r="D9" t="n">
-        <v>4.2057715281054693E8</v>
+        <v>3.6804619879345137E8</v>
       </c>
       <c r="E9" t="n">
-        <v>10511.151732094817</v>
+        <v>10512.49298417578</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>45451.0</v>
+        <v>40401.0</v>
       </c>
       <c r="B10" t="n">
-        <v>510.21719687607293</v>
+        <v>511.2414934411712</v>
       </c>
       <c r="C10" t="n">
-        <v>4.7309998506862336E8</v>
+        <v>4.2057338106955904E8</v>
       </c>
       <c r="D10" t="n">
-        <v>4.730989646342296E8</v>
+        <v>4.205723585865721E8</v>
       </c>
       <c r="E10" t="n">
-        <v>10510.21719687602</v>
+        <v>10511.241493441144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>50501.0</v>
+        <v>45451.0</v>
       </c>
       <c r="B11" t="n">
-        <v>509.0780350871998</v>
+        <v>510.1895151149173</v>
       </c>
       <c r="C11" t="n">
-        <v>5.256067437396313E8</v>
+        <v>4.730973453294004E8</v>
       </c>
       <c r="D11" t="n">
-        <v>5.256057255835611E8</v>
+        <v>4.730963249503702E8</v>
       </c>
       <c r="E11" t="n">
-        <v>10509.078035087214</v>
+        <v>10510.189515114915</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>55551.0</v>
+        <v>50501.0</v>
       </c>
       <c r="B12" t="n">
-        <v>508.29801495618347</v>
+        <v>509.0679981898894</v>
       </c>
       <c r="C12" t="n">
-        <v>5.781259932277611E8</v>
+        <v>5.2560488770880014E8</v>
       </c>
       <c r="D12" t="n">
-        <v>5.781249766317313E8</v>
+        <v>5.256038695728037E8</v>
       </c>
       <c r="E12" t="n">
-        <v>10508.29801495618</v>
+        <v>10509.067998189912</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>60601.0</v>
+        <v>55551.0</v>
       </c>
       <c r="B13" t="n">
-        <v>507.5842477579939</v>
+        <v>508.2313191101232</v>
       </c>
       <c r="C13" t="n">
-        <v>6.306415673017437E8</v>
+        <v>5.781204160632209E8</v>
       </c>
       <c r="D13" t="n">
-        <v>6.306405521332482E8</v>
+        <v>5.781193996005826E8</v>
       </c>
       <c r="E13" t="n">
-        <v>10507.584247757999</v>
+        <v>10508.231319110133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>65651.0</v>
+        <v>60601.0</v>
       </c>
       <c r="B14" t="n">
-        <v>507.037836588927</v>
+        <v>507.642402888981</v>
       </c>
       <c r="C14" t="n">
-        <v>6.831510308011736E8</v>
+        <v>6.306411716329373E8</v>
       </c>
       <c r="D14" t="n">
-        <v>6.831500167255002E8</v>
+        <v>6.306401563481315E8</v>
       </c>
       <c r="E14" t="n">
-        <v>10507.03783658896</v>
+        <v>10507.642402888952</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>70701.0</v>
+        <v>65651.0</v>
       </c>
       <c r="B15" t="n">
-        <v>506.66370478794903</v>
+        <v>507.14417332712566</v>
       </c>
       <c r="C15" t="n">
-        <v>7.356807649954379E8</v>
+        <v>6.831643281019502E8</v>
       </c>
       <c r="D15" t="n">
-        <v>7.356797516680282E8</v>
+        <v>6.831633138136036E8</v>
       </c>
       <c r="E15" t="n">
-        <v>10506.663704787949</v>
+        <v>10507.144173327077</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>75751.0</v>
+        <v>70701.0</v>
       </c>
       <c r="B16" t="n">
-        <v>506.2117126544756</v>
+        <v>506.60568522608537</v>
       </c>
       <c r="C16" t="n">
-        <v>7.882000875911607E8</v>
+        <v>7.356768585851344E8</v>
       </c>
       <c r="D16" t="n">
-        <v>7.881990751677355E8</v>
+        <v>7.356758453737639E8</v>
       </c>
       <c r="E16" t="n">
-        <v>10506.211712654433</v>
+        <v>10506.60568522609</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>80801.0</v>
+        <v>75751.0</v>
       </c>
       <c r="B17" t="n">
-        <v>505.78241399773697</v>
+        <v>506.247175042139</v>
       </c>
       <c r="C17" t="n">
-        <v>8.407070096927645E8</v>
+        <v>7.882070423228729E8</v>
       </c>
       <c r="D17" t="n">
-        <v>8.407059981279364E8</v>
+        <v>7.882060298285228E8</v>
       </c>
       <c r="E17" t="n">
-        <v>10505.782413997773</v>
+        <v>10506.247175042156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>85851.0</v>
+        <v>80801.0</v>
       </c>
       <c r="B18" t="n">
-        <v>505.5250440318978</v>
+        <v>505.96702704251567</v>
       </c>
       <c r="C18" t="n">
-        <v>8.932269500764796E8</v>
+        <v>8.407263997940375E8</v>
       </c>
       <c r="D18" t="n">
-        <v>8.932259390263915E8</v>
+        <v>8.407253878599834E8</v>
       </c>
       <c r="E18" t="n">
-        <v>10505.525044031881</v>
+        <v>10505.967027042527</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>90901.0</v>
+        <v>85851.0</v>
       </c>
       <c r="B19" t="n">
-        <v>505.29469109294683</v>
+        <v>505.5446996478492</v>
       </c>
       <c r="C19" t="n">
-        <v>9.457528841982187E8</v>
+        <v>8.932321005775803E8</v>
       </c>
       <c r="D19" t="n">
-        <v>9.457518736088365E8</v>
+        <v>8.93231089488181E8</v>
       </c>
       <c r="E19" t="n">
-        <v>10505.29469109294</v>
+        <v>10505.544699647768</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>95951.0</v>
+        <v>90901.0</v>
       </c>
       <c r="B20" t="n">
-        <v>504.9495408517437</v>
+        <v>505.31188705117455</v>
       </c>
       <c r="C20" t="n">
-        <v>9.982615816674646E8</v>
+        <v>9.457483203020655E8</v>
       </c>
       <c r="D20" t="n">
-        <v>9.982605717683829E8</v>
+        <v>9.457473096782912E8</v>
       </c>
       <c r="E20" t="n">
-        <v>10504.949540851816</v>
+        <v>10505.311887051157</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>101001.0</v>
+        <v>95951.0</v>
       </c>
       <c r="B21" t="n">
-        <v>504.8147751728055</v>
+        <v>504.95696615520404</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0507900148868221E9</v>
+        <v>9.982639922766569E8</v>
       </c>
       <c r="D21" t="n">
-        <v>1.0507890052572716E9</v>
+        <v>9.982629823627245E8</v>
       </c>
       <c r="E21" t="n">
-        <v>10504.814775172816</v>
+        <v>10504.956966155158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>106051.0</v>
+        <v>101001.0</v>
       </c>
       <c r="B22" t="n">
-        <v>504.5417722927895</v>
+        <v>504.75798718464233</v>
       </c>
       <c r="C22" t="n">
-        <v>1.1032961557230687E9</v>
+        <v>1.0507802191207652E9</v>
       </c>
       <c r="D22" t="n">
-        <v>1.1032951466395242E9</v>
+        <v>1.0507792096047909E9</v>
       </c>
       <c r="E22" t="n">
-        <v>10504.541772292794</v>
+        <v>10504.757987184656</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111101.0</v>
+        <v>106051.0</v>
       </c>
       <c r="B23" t="n">
-        <v>504.4434953264387</v>
+        <v>504.4988732031069</v>
       </c>
       <c r="C23" t="n">
-        <v>1.1558225426046977E9</v>
+        <v>1.103294112237634E9</v>
       </c>
       <c r="D23" t="n">
-        <v>1.1558215337177072E9</v>
+        <v>1.1032931032398877E9</v>
       </c>
       <c r="E23" t="n">
-        <v>10504.44349532648</v>
+        <v>10504.49887320314</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>116151.0</v>
+        <v>111101.0</v>
       </c>
       <c r="B24" t="n">
-        <v>504.1266362672406</v>
+        <v>504.349189029547</v>
       </c>
       <c r="C24" t="n">
-        <v>1.2083194141767147E9</v>
+        <v>1.1558129997266712E9</v>
       </c>
       <c r="D24" t="n">
-        <v>1.2083184059234421E9</v>
+        <v>1.1558119910282931E9</v>
       </c>
       <c r="E24" t="n">
-        <v>10504.126636267283</v>
+        <v>10504.349189029594</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>121201.0</v>
+        <v>116151.0</v>
       </c>
       <c r="B25" t="n">
-        <v>503.95074126767634</v>
+        <v>504.1911056996077</v>
       </c>
       <c r="C25" t="n">
-        <v>1.2608426343636405E9</v>
+        <v>1.2083288780581608E9</v>
       </c>
       <c r="D25" t="n">
-        <v>1.260841626462158E9</v>
+        <v>1.2083278696759493E9</v>
       </c>
       <c r="E25" t="n">
-        <v>10503.950741267668</v>
+        <v>10504.19110569959</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>126251.0</v>
+        <v>121201.0</v>
       </c>
       <c r="B26" t="n">
-        <v>503.8769456215313</v>
+        <v>504.0349040039399</v>
       </c>
       <c r="C26" t="n">
-        <v>1.3133667346592526E9</v>
+        <v>1.260849604867779E9</v>
       </c>
       <c r="D26" t="n">
-        <v>1.3133657269053612E9</v>
+        <v>1.260848596797971E9</v>
       </c>
       <c r="E26" t="n">
-        <v>10503.87694562157</v>
+        <v>10504.034904003951</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131301.0</v>
+        <v>126251.0</v>
       </c>
       <c r="B27" t="n">
-        <v>503.73815455806357</v>
+        <v>503.93695048365083</v>
       </c>
       <c r="C27" t="n">
-        <v>1.3658711449381464E9</v>
+        <v>1.3133746727962403E9</v>
       </c>
       <c r="D27" t="n">
-        <v>1.3658701374618373E9</v>
+        <v>1.313373664922339E9</v>
       </c>
       <c r="E27" t="n">
-        <v>10503.738154558008</v>
+        <v>10503.93695048361</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>136351.0</v>
+        <v>131301.0</v>
       </c>
       <c r="B28" t="n">
-        <v>503.5686467048417</v>
+        <v>503.71218738659405</v>
       </c>
       <c r="C28" t="n">
-        <v>1.4183962852508566E9</v>
+        <v>1.3658783285329301E9</v>
       </c>
       <c r="D28" t="n">
-        <v>1.418395278113563E9</v>
+        <v>1.365877321108555E9</v>
       </c>
       <c r="E28" t="n">
-        <v>10503.568646704876</v>
+        <v>10503.712187386573</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>141401.0</v>
+        <v>136351.0</v>
       </c>
       <c r="B29" t="n">
-        <v>503.4732561016886</v>
+        <v>503.51007518217915</v>
       </c>
       <c r="C29" t="n">
-        <v>1.470919025128431E9</v>
+        <v>1.418390096767667E9</v>
       </c>
       <c r="D29" t="n">
-        <v>1.4709180181819189E9</v>
+        <v>1.4183890897475166E9</v>
       </c>
       <c r="E29" t="n">
-        <v>10503.473256101706</v>
+        <v>10503.5100751822</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
+        <v>141401.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>503.4220725632096</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.470910260412777E9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.4709092535686316E9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10503.422072563239</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
         <v>146451.0</v>
       </c>
-      <c r="B30" t="n">
-        <v>503.3413199576167</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1.5234324069066699E9</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.5234314002240298E9</v>
-      </c>
-      <c r="E30" t="n">
-        <v>10503.341319957637</v>
+      <c r="B31" t="n">
+        <v>503.3699898545578</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.5234298993090224E9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.5234288925690427E9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10503.369989854556</v>
       </c>
     </row>
   </sheetData>

--- a/updateOct11/cpu/SRT.xlsx
+++ b/updateOct11/cpu/SRT.xlsx
@@ -99,16 +99,16 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>599.5003134659545</v>
+        <v>599.2325665869322</v>
       </c>
       <c r="C2" t="n">
-        <v>1421.8433836023103</v>
+        <v>1198.4651331738753</v>
       </c>
       <c r="D2" t="n">
-        <v>222.84275667039205</v>
+        <v>5.53560669525055E-12</v>
       </c>
       <c r="E2" t="n">
-        <v>10599.500313465962</v>
+        <v>1199.2925665866342</v>
       </c>
     </row>
     <row r="3">
@@ -116,16 +116,16 @@
         <v>5051.0</v>
       </c>
       <c r="B3" t="n">
-        <v>549.1977475972473</v>
+        <v>550.5681603505575</v>
       </c>
       <c r="C3" t="n">
-        <v>5.276250337977644E7</v>
+        <v>47234.44036835699</v>
       </c>
       <c r="D3" t="n">
-        <v>5.276140498428125E7</v>
+        <v>46133.3040476568</v>
       </c>
       <c r="E3" t="n">
-        <v>10549.19774759723</v>
+        <v>1750.6881603497955</v>
       </c>
     </row>
     <row r="4">
@@ -133,16 +133,16 @@
         <v>10101.0</v>
       </c>
       <c r="B4" t="n">
-        <v>533.9141510171044</v>
+        <v>533.1576321477303</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0537116791480896E8</v>
+        <v>66122.97364050394</v>
       </c>
       <c r="D4" t="n">
-        <v>1.053701000865069E8</v>
+        <v>65056.658376208914</v>
       </c>
       <c r="E4" t="n">
-        <v>10533.914151017098</v>
+        <v>2333.3376321464652</v>
       </c>
     </row>
     <row r="5">
@@ -150,16 +150,16 @@
         <v>15151.0</v>
       </c>
       <c r="B5" t="n">
-        <v>525.2061133457579</v>
+        <v>524.6474060310906</v>
       </c>
       <c r="C5" t="n">
-        <v>1.5792437233006203E8</v>
+        <v>85977.94637022456</v>
       </c>
       <c r="D5" t="n">
-        <v>1.5792332191783535E8</v>
+        <v>84928.65155816046</v>
       </c>
       <c r="E5" t="n">
-        <v>10525.206113345721</v>
+        <v>2924.8874060292997</v>
       </c>
     </row>
     <row r="6">
@@ -167,16 +167,16 @@
         <v>20201.0</v>
       </c>
       <c r="B6" t="n">
-        <v>520.0824716151926</v>
+        <v>520.0998994174328</v>
       </c>
       <c r="C6" t="n">
-        <v>2.104695386503548E8</v>
+        <v>128452.75300706379</v>
       </c>
       <c r="D6" t="n">
-        <v>2.1046849848541158E8</v>
+        <v>127412.55320822689</v>
       </c>
       <c r="E6" t="n">
-        <v>10520.082471615195</v>
+        <v>3520.3998994151225</v>
       </c>
     </row>
     <row r="7">
@@ -184,16 +184,16 @@
         <v>25251.0</v>
       </c>
       <c r="B7" t="n">
-        <v>516.7799484385566</v>
+        <v>516.669980906794</v>
       </c>
       <c r="C7" t="n">
-        <v>2.629972928078459E8</v>
+        <v>139827.84571725075</v>
       </c>
       <c r="D7" t="n">
-        <v>2.62996259247949E8</v>
+        <v>138794.50575543573</v>
       </c>
       <c r="E7" t="n">
-        <v>10516.77994843857</v>
+        <v>4117.0299809040835</v>
       </c>
     </row>
     <row r="8">
@@ -201,16 +201,16 @@
         <v>30301.0</v>
       </c>
       <c r="B8" t="n">
-        <v>514.1016487654431</v>
+        <v>514.1937734274638</v>
       </c>
       <c r="C8" t="n">
-        <v>3.155188455394907E8</v>
+        <v>241288.17562609198</v>
       </c>
       <c r="D8" t="n">
-        <v>3.155178173361932E8</v>
+        <v>240259.78807922665</v>
       </c>
       <c r="E8" t="n">
-        <v>10514.101648765429</v>
+        <v>4714.613773428269</v>
       </c>
     </row>
     <row r="9">
@@ -218,16 +218,16 @@
         <v>35351.0</v>
       </c>
       <c r="B9" t="n">
-        <v>512.4929841757461</v>
+        <v>512.4251804644493</v>
       </c>
       <c r="C9" t="n">
-        <v>3.680472237794197E8</v>
+        <v>474203.46256445814</v>
       </c>
       <c r="D9" t="n">
-        <v>3.6804619879345137E8</v>
+        <v>473178.612203523</v>
       </c>
       <c r="E9" t="n">
-        <v>10512.49298417578</v>
+        <v>5312.9051804688725</v>
       </c>
     </row>
     <row r="10">
@@ -235,16 +235,16 @@
         <v>40401.0</v>
       </c>
       <c r="B10" t="n">
-        <v>511.2414934411712</v>
+        <v>511.11950089852843</v>
       </c>
       <c r="C10" t="n">
-        <v>4.2057338106955904E8</v>
+        <v>278749.9205303257</v>
       </c>
       <c r="D10" t="n">
-        <v>4.205723585865721E8</v>
+        <v>277727.6815285184</v>
       </c>
       <c r="E10" t="n">
-        <v>10511.241493441144</v>
+        <v>5911.659500906605</v>
       </c>
     </row>
     <row r="11">
@@ -252,16 +252,16 @@
         <v>45451.0</v>
       </c>
       <c r="B11" t="n">
-        <v>510.1895151149173</v>
+        <v>509.8739625918634</v>
       </c>
       <c r="C11" t="n">
-        <v>4.730973453294004E8</v>
+        <v>233486.24100547025</v>
       </c>
       <c r="D11" t="n">
-        <v>4.730963249503702E8</v>
+        <v>232466.49308028346</v>
       </c>
       <c r="E11" t="n">
-        <v>10510.189515114915</v>
+        <v>6510.47396260371</v>
       </c>
     </row>
     <row r="12">
@@ -269,16 +269,16 @@
         <v>50501.0</v>
       </c>
       <c r="B12" t="n">
-        <v>509.0679981898894</v>
+        <v>509.08157488863094</v>
       </c>
       <c r="C12" t="n">
-        <v>5.2560488770880014E8</v>
+        <v>312684.3155370875</v>
       </c>
       <c r="D12" t="n">
-        <v>5.256038695728037E8</v>
+        <v>311666.1523873043</v>
       </c>
       <c r="E12" t="n">
-        <v>10509.067998189912</v>
+        <v>7109.7415749042675</v>
       </c>
     </row>
     <row r="13">
@@ -286,16 +286,16 @@
         <v>55551.0</v>
       </c>
       <c r="B13" t="n">
-        <v>508.2313191101232</v>
+        <v>508.3617511673978</v>
       </c>
       <c r="C13" t="n">
-        <v>5.781204160632209E8</v>
+        <v>299997.5700394721</v>
       </c>
       <c r="D13" t="n">
-        <v>5.781193996005826E8</v>
+        <v>298980.846537129</v>
       </c>
       <c r="E13" t="n">
-        <v>10508.231319110133</v>
+        <v>7709.08175118687</v>
       </c>
     </row>
     <row r="14">
@@ -303,16 +303,16 @@
         <v>60601.0</v>
       </c>
       <c r="B14" t="n">
-        <v>507.642402888981</v>
+        <v>507.7011314114033</v>
       </c>
       <c r="C14" t="n">
-        <v>6.306411716329373E8</v>
+        <v>413182.4950619857</v>
       </c>
       <c r="D14" t="n">
-        <v>6.306401563481315E8</v>
+        <v>412167.0927991502</v>
       </c>
       <c r="E14" t="n">
-        <v>10507.642402888952</v>
+        <v>8308.481131433082</v>
       </c>
     </row>
     <row r="15">
@@ -320,16 +320,16 @@
         <v>65651.0</v>
       </c>
       <c r="B15" t="n">
-        <v>507.14417332712566</v>
+        <v>507.1134782262492</v>
       </c>
       <c r="C15" t="n">
-        <v>6.831643281019502E8</v>
+        <v>480509.72463630274</v>
       </c>
       <c r="D15" t="n">
-        <v>6.831633138136036E8</v>
+        <v>479495.49767984013</v>
       </c>
       <c r="E15" t="n">
-        <v>10507.144173327077</v>
+        <v>8907.95347824321</v>
       </c>
     </row>
     <row r="16">
@@ -337,16 +337,16 @@
         <v>70701.0</v>
       </c>
       <c r="B16" t="n">
-        <v>506.60568522608537</v>
+        <v>506.70891039184653</v>
       </c>
       <c r="C16" t="n">
-        <v>7.356768585851344E8</v>
+        <v>458536.8454511972</v>
       </c>
       <c r="D16" t="n">
-        <v>7.356758453737639E8</v>
+        <v>457523.4276304002</v>
       </c>
       <c r="E16" t="n">
-        <v>10506.60568522609</v>
+        <v>9507.60891040408</v>
       </c>
     </row>
     <row r="17">
@@ -354,16 +354,16 @@
         <v>75751.0</v>
       </c>
       <c r="B17" t="n">
-        <v>506.247175042139</v>
+        <v>506.37419568797947</v>
       </c>
       <c r="C17" t="n">
-        <v>7.882070423228729E8</v>
+        <v>346096.3856426927</v>
       </c>
       <c r="D17" t="n">
-        <v>7.882060298285228E8</v>
+        <v>345083.63725130016</v>
       </c>
       <c r="E17" t="n">
-        <v>10506.247175042156</v>
+        <v>10107.334195695348</v>
       </c>
     </row>
     <row r="18">
@@ -371,16 +371,16 @@
         <v>80801.0</v>
       </c>
       <c r="B18" t="n">
-        <v>505.96702704251567</v>
+        <v>505.9156994124931</v>
       </c>
       <c r="C18" t="n">
-        <v>8.407263997940375E8</v>
+        <v>345101.1809678955</v>
       </c>
       <c r="D18" t="n">
-        <v>8.407253878599834E8</v>
+        <v>344089.34956905077</v>
       </c>
       <c r="E18" t="n">
-        <v>10505.967027042527</v>
+        <v>10706.935699415151</v>
       </c>
     </row>
     <row r="19">
@@ -388,16 +388,16 @@
         <v>85851.0</v>
       </c>
       <c r="B19" t="n">
-        <v>505.5446996478492</v>
+        <v>505.5574485597781</v>
       </c>
       <c r="C19" t="n">
-        <v>8.932321005775803E8</v>
+        <v>274185.05163111107</v>
       </c>
       <c r="D19" t="n">
-        <v>8.93231089488181E8</v>
+        <v>273173.9367339911</v>
       </c>
       <c r="E19" t="n">
-        <v>10505.544699647768</v>
+        <v>11306.637448557525</v>
       </c>
     </row>
     <row r="20">
@@ -405,16 +405,16 @@
         <v>90901.0</v>
       </c>
       <c r="B20" t="n">
-        <v>505.31188705117455</v>
+        <v>505.3848325533055</v>
       </c>
       <c r="C20" t="n">
-        <v>9.457483203020655E8</v>
+        <v>676472.6870760949</v>
       </c>
       <c r="D20" t="n">
-        <v>9.457473096782912E8</v>
+        <v>675461.9174109857</v>
       </c>
       <c r="E20" t="n">
-        <v>10505.311887051157</v>
+        <v>11906.524832546196</v>
       </c>
     </row>
     <row r="21">
@@ -422,16 +422,16 @@
         <v>95951.0</v>
       </c>
       <c r="B21" t="n">
-        <v>504.95696615520404</v>
+        <v>505.02275530307867</v>
       </c>
       <c r="C21" t="n">
-        <v>9.982639922766569E8</v>
+        <v>393241.1453356835</v>
       </c>
       <c r="D21" t="n">
-        <v>9.982629823627245E8</v>
+        <v>392231.0998250692</v>
       </c>
       <c r="E21" t="n">
-        <v>10504.956966155158</v>
+        <v>12506.22275529106</v>
       </c>
     </row>
     <row r="22">
@@ -439,16 +439,16 @@
         <v>101001.0</v>
       </c>
       <c r="B22" t="n">
-        <v>504.75798718464233</v>
+        <v>504.80390114795733</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0507802191207652E9</v>
+        <v>396514.2369854308</v>
       </c>
       <c r="D22" t="n">
-        <v>1.0507792096047909E9</v>
+        <v>395504.62918312603</v>
       </c>
       <c r="E22" t="n">
-        <v>10504.757987184656</v>
+        <v>13106.063901131056</v>
       </c>
     </row>
     <row r="23">
@@ -456,16 +456,16 @@
         <v>106051.0</v>
       </c>
       <c r="B23" t="n">
-        <v>504.4988732031069</v>
+        <v>504.5788413421824</v>
       </c>
       <c r="C23" t="n">
-        <v>1.103294112237634E9</v>
+        <v>398656.731408491</v>
       </c>
       <c r="D23" t="n">
-        <v>1.1032931032398877E9</v>
+        <v>397647.57372579694</v>
       </c>
       <c r="E23" t="n">
-        <v>10504.49887320314</v>
+        <v>13705.898841320297</v>
       </c>
     </row>
     <row r="24">
@@ -473,16 +473,16 @@
         <v>111101.0</v>
       </c>
       <c r="B24" t="n">
-        <v>504.349189029547</v>
+        <v>504.3789067816731</v>
       </c>
       <c r="C24" t="n">
-        <v>1.1558129997266712E9</v>
+        <v>637264.6369126254</v>
       </c>
       <c r="D24" t="n">
-        <v>1.1558119910282931E9</v>
+        <v>636255.8790990569</v>
       </c>
       <c r="E24" t="n">
-        <v>10504.349189029594</v>
+        <v>14305.758906754849</v>
       </c>
     </row>
     <row r="25">
@@ -490,16 +490,16 @@
         <v>116151.0</v>
       </c>
       <c r="B25" t="n">
-        <v>504.1911056996077</v>
+        <v>504.21132256873136</v>
       </c>
       <c r="C25" t="n">
-        <v>1.2083288780581608E9</v>
+        <v>533212.3259117552</v>
       </c>
       <c r="D25" t="n">
-        <v>1.2083278696759493E9</v>
+        <v>532203.9032666121</v>
       </c>
       <c r="E25" t="n">
-        <v>10504.19110569959</v>
+        <v>14905.6513225369</v>
       </c>
     </row>
     <row r="26">
@@ -507,16 +507,16 @@
         <v>121201.0</v>
       </c>
       <c r="B26" t="n">
-        <v>504.0349040039399</v>
+        <v>503.9670816506262</v>
       </c>
       <c r="C26" t="n">
-        <v>1.260849604867779E9</v>
+        <v>490949.3519545602</v>
       </c>
       <c r="D26" t="n">
-        <v>1.260848596797971E9</v>
+        <v>489941.4177912542</v>
       </c>
       <c r="E26" t="n">
-        <v>10504.034904003951</v>
+        <v>15505.467081613857</v>
       </c>
     </row>
     <row r="27">
@@ -524,16 +524,16 @@
         <v>126251.0</v>
       </c>
       <c r="B27" t="n">
-        <v>503.93695048365083</v>
+        <v>503.90830144229466</v>
       </c>
       <c r="C27" t="n">
-        <v>1.3133746727962403E9</v>
+        <v>558070.5745679992</v>
       </c>
       <c r="D27" t="n">
-        <v>1.313373664922339E9</v>
+        <v>557062.7579651166</v>
       </c>
       <c r="E27" t="n">
-        <v>10503.93695048361</v>
+        <v>16105.468301400564</v>
       </c>
     </row>
     <row r="28">
@@ -541,16 +541,16 @@
         <v>131301.0</v>
       </c>
       <c r="B28" t="n">
-        <v>503.71218738659405</v>
+        <v>503.64623963061166</v>
       </c>
       <c r="C28" t="n">
-        <v>1.3658783285329301E9</v>
+        <v>688757.4085990215</v>
       </c>
       <c r="D28" t="n">
-        <v>1.365877321108555E9</v>
+        <v>687750.1161197624</v>
       </c>
       <c r="E28" t="n">
-        <v>10503.712187386573</v>
+        <v>16705.266239593333</v>
       </c>
     </row>
     <row r="29">
@@ -558,16 +558,16 @@
         <v>136351.0</v>
       </c>
       <c r="B29" t="n">
-        <v>503.51007518217915</v>
+        <v>503.56085757351946</v>
       </c>
       <c r="C29" t="n">
-        <v>1.418390096767667E9</v>
+        <v>637614.4997023202</v>
       </c>
       <c r="D29" t="n">
-        <v>1.4183890897475166E9</v>
+        <v>636607.3779871752</v>
       </c>
       <c r="E29" t="n">
-        <v>10503.5100751822</v>
+        <v>17305.24085754887</v>
       </c>
     </row>
     <row r="30">
@@ -575,16 +575,16 @@
         <v>141401.0</v>
       </c>
       <c r="B30" t="n">
-        <v>503.4220725632096</v>
+        <v>503.433130893882</v>
       </c>
       <c r="C30" t="n">
-        <v>1.470910260412777E9</v>
+        <v>551522.3639572252</v>
       </c>
       <c r="D30" t="n">
-        <v>1.4709092535686316E9</v>
+        <v>550515.497695438</v>
       </c>
       <c r="E30" t="n">
-        <v>10503.422072563239</v>
+        <v>17905.1731308819</v>
       </c>
     </row>
     <row r="31">
@@ -592,16 +592,16 @@
         <v>146451.0</v>
       </c>
       <c r="B31" t="n">
-        <v>503.3699898545578</v>
+        <v>503.3760939687362</v>
       </c>
       <c r="C31" t="n">
-        <v>1.5234298993090224E9</v>
+        <v>985098.8282358274</v>
       </c>
       <c r="D31" t="n">
-        <v>1.5234288925690427E9</v>
+        <v>984092.0760478931</v>
       </c>
       <c r="E31" t="n">
-        <v>10503.369989854556</v>
+        <v>18505.17609396946</v>
       </c>
     </row>
   </sheetData>
